--- a/ig/corecl/1.7.0/ValueSet-VSTiposDocumentos.xlsx
+++ b/ig/corecl/1.7.0/ValueSet-VSTiposDocumentos.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/ValueSet/VSTiposDocumentos</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/ValueSet/VSTiposDocumentos</t>
   </si>
   <si>
     <t>Version</t>
@@ -115,7 +115,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/CodeSystem/CSCodigoDNI</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/CodeSystem/CSCodigoDNI</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
